--- a/NPS_LouardMichael.xlsx
+++ b/NPS_LouardMichael.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louar\Desktop\CWRU\Fall_2021\TTS\Excel Project\Final Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louar\Desktop\CWRU\Fall_2021\TTS\ExcelProject\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054FEBB5-E368-4632-84A4-C753121A8CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE38D50D-4350-42C5-A76E-DF7C1E03319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="6" xr2:uid="{716371E6-106B-4975-A7E7-52FD42372E0F}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{716371E6-106B-4975-A7E7-52FD42372E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="NPS Rules" sheetId="1" r:id="rId1"/>
-    <sheet name="Park Data" sheetId="2" r:id="rId2"/>
+    <sheet name="1B Park Data" sheetId="2" r:id="rId2"/>
     <sheet name="Park Monthly Data" sheetId="3" r:id="rId3"/>
     <sheet name="2B" sheetId="7" r:id="rId4"/>
     <sheet name="3B" sheetId="6" r:id="rId5"/>
@@ -22,7 +22,7 @@
     <sheet name="5B" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Park Data'!$A$1:$I$351</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1B Park Data'!$A$1:$I$351</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Park Monthly Data'!$A$1:$Q$422</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="70">
   <si>
     <t>Be placed on its own chart sheet with appropriate worksheet (i.e., tab) names</t>
   </si>
@@ -458,6 +458,15 @@
   <si>
     <t xml:space="preserve">Discussion: </t>
   </si>
+  <si>
+    <t xml:space="preserve">A line chart was used to display the monthly recreational activity for each of the ten parks. This chart made the most sense because graphing months on the x axis and visitor count on the y axis allows for the audience to see which months are the most popular. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pie chart was used because it simply shows which state in this region is the most popular state regarding national parks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A column chart was used to answer how many visitors visited the park in the most recent calendar year. This chart makes the most sense because of the ease of readabilty for the audience. Plotting parks on the y axis and visitor count on the x axis allows the user to see which park out of the ten is the most popular. </t>
+  </si>
 </sst>
 </file>
 
@@ -550,16 +559,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -574,7 +580,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -583,6 +588,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1130,7 +1138,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Park Data'!$B$13</c:f>
+              <c:f>'1B Park Data'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1304,7 +1312,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Park Data'!$A$14:$A$18</c:f>
+              <c:f>'1B Park Data'!$A$14:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1327,7 +1335,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Park Data'!$B$14:$B$18</c:f>
+              <c:f>'1B Park Data'!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4882,7 +4890,7 @@
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4895,7 +4903,7 @@
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4908,7 +4916,7 @@
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4919,7 +4927,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:ext cx="8662358" cy="6290094"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4952,7 +4960,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10829511" cy="7858125"/>
+    <xdr:ext cx="8662358" cy="6290094"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4985,7 +4993,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663609" cy="6286500"/>
+    <xdr:ext cx="8662358" cy="6290094"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7914,8 +7922,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7927,13 +7935,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7953,71 +7961,71 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8025,25 +8033,25 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
@@ -8075,35 +8083,35 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8120,16 +8128,16 @@
       <c r="D2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>5067510</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.17530000000000001</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>7702536</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.1762</v>
       </c>
     </row>
@@ -8146,16 +8154,16 @@
       <c r="D3" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>2428724</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>0.1328</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>4857448</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>0.12809999999999999</v>
       </c>
     </row>
@@ -8172,16 +8180,16 @@
       <c r="D4" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>2423390</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>7099454</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>4.4299999999999999E-2</v>
       </c>
     </row>
@@ -8198,16 +8206,16 @@
       <c r="D5" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1698223</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>4536913</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>2.69E-2</v>
       </c>
     </row>
@@ -8224,16 +8232,16 @@
       <c r="D6" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1683553</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>8801205</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.1177</v>
       </c>
     </row>
@@ -8250,16 +8258,16 @@
       <c r="D7" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>1091320</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1.03E-2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>4766055</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>-2.0999999999999999E-3</v>
       </c>
     </row>
@@ -8276,16 +8284,16 @@
       <c r="D8" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>1066546</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-1.54E-2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>4561112</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>-6.4100000000000004E-2</v>
       </c>
     </row>
@@ -8302,16 +8310,16 @@
       <c r="D9" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>777428</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>3892200</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
@@ -8328,16 +8336,16 @@
       <c r="D10" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>762960</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>-2.4E-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>1436648</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -8354,24 +8362,24 @@
       <c r="D11" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>586514</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>3545116</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>1.84E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8379,7 +8387,7 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>SUM(E2,E3,E7,E8)</f>
         <v>9654100</v>
       </c>
@@ -8388,7 +8396,7 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f>SUM(E4)</f>
         <v>2423390</v>
       </c>
@@ -8397,7 +8405,7 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <f>SUM(E5)</f>
         <v>1698223</v>
       </c>
@@ -8406,7 +8414,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f>SUM(E6,E9)</f>
         <v>2460981</v>
       </c>
@@ -8415,7 +8423,7 @@
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>SUM(E10,E11)</f>
         <v>1349474</v>
       </c>
@@ -8446,60 +8454,60 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
     <col min="17" max="17" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8510,7 +8518,7 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>2021</v>
       </c>
       <c r="E2">
@@ -8555,7 +8563,7 @@
         <f>_xlfn.CONCAT(A3,", ", B3)</f>
         <v>Independence NHP, Pennsylvania</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2020</v>
       </c>
       <c r="E3">
@@ -8606,7 +8614,7 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2019</v>
       </c>
       <c r="E4">
@@ -8656,7 +8664,7 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2018</v>
       </c>
       <c r="E5">
@@ -8706,7 +8714,7 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2017</v>
       </c>
       <c r="E6">
@@ -8756,7 +8764,7 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2016</v>
       </c>
       <c r="E7">
@@ -8806,7 +8814,7 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2015</v>
       </c>
       <c r="E8">
@@ -8856,7 +8864,7 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2014</v>
       </c>
       <c r="E9">
@@ -8906,7 +8914,7 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2013</v>
       </c>
       <c r="E10">
@@ -8956,7 +8964,7 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2012</v>
       </c>
       <c r="E11">
@@ -9006,7 +9014,7 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2011</v>
       </c>
       <c r="E12">
@@ -9056,7 +9064,7 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2010</v>
       </c>
       <c r="E13">
@@ -9106,7 +9114,7 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>2009</v>
       </c>
       <c r="E14">
@@ -9156,7 +9164,7 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>2008</v>
       </c>
       <c r="E15">
@@ -9206,7 +9214,7 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>2007</v>
       </c>
       <c r="E16">
@@ -9256,7 +9264,7 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>2006</v>
       </c>
       <c r="E17">
@@ -9306,7 +9314,7 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>2005</v>
       </c>
       <c r="E18">
@@ -9356,7 +9364,7 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2004</v>
       </c>
       <c r="E19">
@@ -9406,7 +9414,7 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>2003</v>
       </c>
       <c r="E20">
@@ -9456,7 +9464,7 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2002</v>
       </c>
       <c r="E21">
@@ -9506,7 +9514,7 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>2001</v>
       </c>
       <c r="E22">
@@ -9556,7 +9564,7 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>2000</v>
       </c>
       <c r="E23">
@@ -9606,7 +9614,7 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>1999</v>
       </c>
       <c r="E24">
@@ -9656,7 +9664,7 @@
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1998</v>
       </c>
       <c r="E25">
@@ -9706,7 +9714,7 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>1997</v>
       </c>
       <c r="E26">
@@ -9756,7 +9764,7 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>1996</v>
       </c>
       <c r="E27">
@@ -9806,7 +9814,7 @@
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>1995</v>
       </c>
       <c r="E28">
@@ -9856,7 +9864,7 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>1994</v>
       </c>
       <c r="E29">
@@ -9906,7 +9914,7 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1993</v>
       </c>
       <c r="E30">
@@ -9956,7 +9964,7 @@
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>1992</v>
       </c>
       <c r="E31">
@@ -10006,7 +10014,7 @@
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1991</v>
       </c>
       <c r="E32">
@@ -10056,7 +10064,7 @@
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>1990</v>
       </c>
       <c r="E33">
@@ -10106,7 +10114,7 @@
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>1989</v>
       </c>
       <c r="E34">
@@ -10156,7 +10164,7 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>1988</v>
       </c>
       <c r="E35">
@@ -10206,7 +10214,7 @@
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>1987</v>
       </c>
       <c r="E36">
@@ -10256,7 +10264,7 @@
       <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>1986</v>
       </c>
       <c r="E37">
@@ -10306,7 +10314,7 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>1985</v>
       </c>
       <c r="E38">
@@ -10356,7 +10364,7 @@
       <c r="B39" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>1984</v>
       </c>
       <c r="E39">
@@ -10406,7 +10414,7 @@
       <c r="B40" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>1983</v>
       </c>
       <c r="E40">
@@ -10456,7 +10464,7 @@
       <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>1982</v>
       </c>
       <c r="E41">
@@ -10506,7 +10514,7 @@
       <c r="B42" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>1981</v>
       </c>
       <c r="E42">
@@ -10556,7 +10564,7 @@
       <c r="B43" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>1980</v>
       </c>
       <c r="E43">
@@ -10606,7 +10614,7 @@
       <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>1979</v>
       </c>
       <c r="E44">
@@ -10660,7 +10668,7 @@
         <f>_xlfn.CONCAT(A45,", ", B45)</f>
         <v>Valley Forge NHP, Pennsylvania</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>2020</v>
       </c>
       <c r="E45">
@@ -10711,7 +10719,7 @@
       <c r="B46" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>2019</v>
       </c>
       <c r="E46">
@@ -10758,7 +10766,7 @@
       <c r="B47" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>2018</v>
       </c>
       <c r="E47">
@@ -10805,7 +10813,7 @@
       <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>2017</v>
       </c>
       <c r="E48">
@@ -10852,7 +10860,7 @@
       <c r="B49" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>2016</v>
       </c>
       <c r="E49">
@@ -10899,7 +10907,7 @@
       <c r="B50" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>2015</v>
       </c>
       <c r="E50">
@@ -10946,7 +10954,7 @@
       <c r="B51" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>2014</v>
       </c>
       <c r="E51">
@@ -10993,7 +11001,7 @@
       <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>2013</v>
       </c>
       <c r="E52">
@@ -11040,7 +11048,7 @@
       <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>2012</v>
       </c>
       <c r="E53">
@@ -11087,7 +11095,7 @@
       <c r="B54" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>2011</v>
       </c>
       <c r="E54">
@@ -11134,7 +11142,7 @@
       <c r="B55" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>2010</v>
       </c>
       <c r="E55">
@@ -11181,7 +11189,7 @@
       <c r="B56" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>2009</v>
       </c>
       <c r="E56">
@@ -11228,7 +11236,7 @@
       <c r="B57" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>2008</v>
       </c>
       <c r="E57">
@@ -11275,7 +11283,7 @@
       <c r="B58" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>2007</v>
       </c>
       <c r="E58">
@@ -11322,7 +11330,7 @@
       <c r="B59" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>2006</v>
       </c>
       <c r="E59">
@@ -11369,7 +11377,7 @@
       <c r="B60" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>2005</v>
       </c>
       <c r="E60">
@@ -11416,7 +11424,7 @@
       <c r="B61" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>2004</v>
       </c>
       <c r="E61">
@@ -11463,7 +11471,7 @@
       <c r="B62" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>2003</v>
       </c>
       <c r="E62">
@@ -11510,7 +11518,7 @@
       <c r="B63" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>2002</v>
       </c>
       <c r="E63">
@@ -11557,7 +11565,7 @@
       <c r="B64" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>2001</v>
       </c>
       <c r="E64">
@@ -11604,7 +11612,7 @@
       <c r="B65" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>2000</v>
       </c>
       <c r="E65">
@@ -11651,7 +11659,7 @@
       <c r="B66" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>1999</v>
       </c>
       <c r="E66">
@@ -11698,7 +11706,7 @@
       <c r="B67" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>1998</v>
       </c>
       <c r="E67">
@@ -11745,7 +11753,7 @@
       <c r="B68" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>1997</v>
       </c>
       <c r="E68">
@@ -11792,7 +11800,7 @@
       <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>1996</v>
       </c>
       <c r="E69">
@@ -11839,7 +11847,7 @@
       <c r="B70" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>1995</v>
       </c>
       <c r="E70">
@@ -11886,7 +11894,7 @@
       <c r="B71" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>1994</v>
       </c>
       <c r="E71">
@@ -11933,7 +11941,7 @@
       <c r="B72" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>1993</v>
       </c>
       <c r="E72">
@@ -11980,7 +11988,7 @@
       <c r="B73" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>1992</v>
       </c>
       <c r="E73">
@@ -12027,7 +12035,7 @@
       <c r="B74" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>1991</v>
       </c>
       <c r="E74">
@@ -12074,7 +12082,7 @@
       <c r="B75" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>1990</v>
       </c>
       <c r="E75">
@@ -12121,7 +12129,7 @@
       <c r="B76" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>1989</v>
       </c>
       <c r="E76">
@@ -12168,7 +12176,7 @@
       <c r="B77" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>1988</v>
       </c>
       <c r="E77">
@@ -12215,7 +12223,7 @@
       <c r="B78" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>1987</v>
       </c>
       <c r="E78">
@@ -12262,7 +12270,7 @@
       <c r="B79" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>1986</v>
       </c>
       <c r="E79">
@@ -12309,7 +12317,7 @@
       <c r="B80" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>1985</v>
       </c>
       <c r="E80">
@@ -12356,7 +12364,7 @@
       <c r="B81" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>1984</v>
       </c>
       <c r="E81">
@@ -12403,7 +12411,7 @@
       <c r="B82" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>1983</v>
       </c>
       <c r="E82">
@@ -12450,7 +12458,7 @@
       <c r="B83" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>1982</v>
       </c>
       <c r="E83">
@@ -12497,7 +12505,7 @@
       <c r="B84" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>1981</v>
       </c>
       <c r="E84">
@@ -12544,7 +12552,7 @@
       <c r="B85" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>1980</v>
       </c>
       <c r="E85">
@@ -12591,7 +12599,7 @@
       <c r="B86" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>1979</v>
       </c>
       <c r="E86">
@@ -12642,7 +12650,7 @@
         <f>_xlfn.CONCAT(A87,", ", B87)</f>
         <v>Cuyahoga Valley NP, Ohio</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>2020</v>
       </c>
       <c r="E87">
@@ -12693,7 +12701,7 @@
       <c r="B88" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>2019</v>
       </c>
       <c r="E88">
@@ -12740,7 +12748,7 @@
       <c r="B89" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>2018</v>
       </c>
       <c r="E89">
@@ -12787,7 +12795,7 @@
       <c r="B90" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>2017</v>
       </c>
       <c r="E90">
@@ -12834,7 +12842,7 @@
       <c r="B91" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>2016</v>
       </c>
       <c r="E91">
@@ -12881,7 +12889,7 @@
       <c r="B92" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>2015</v>
       </c>
       <c r="E92">
@@ -12928,7 +12936,7 @@
       <c r="B93" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>2014</v>
       </c>
       <c r="E93">
@@ -12975,7 +12983,7 @@
       <c r="B94" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>2013</v>
       </c>
       <c r="E94">
@@ -13022,7 +13030,7 @@
       <c r="B95" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>2012</v>
       </c>
       <c r="E95">
@@ -13069,7 +13077,7 @@
       <c r="B96" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>2011</v>
       </c>
       <c r="E96">
@@ -13116,7 +13124,7 @@
       <c r="B97" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>2010</v>
       </c>
       <c r="E97">
@@ -13163,7 +13171,7 @@
       <c r="B98" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>2009</v>
       </c>
       <c r="E98">
@@ -13210,7 +13218,7 @@
       <c r="B99" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>2008</v>
       </c>
       <c r="E99">
@@ -13257,7 +13265,7 @@
       <c r="B100" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>2007</v>
       </c>
       <c r="E100">
@@ -13304,7 +13312,7 @@
       <c r="B101" t="s">
         <v>27</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="3">
         <v>2006</v>
       </c>
       <c r="E101">
@@ -13351,7 +13359,7 @@
       <c r="B102" t="s">
         <v>27</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>2005</v>
       </c>
       <c r="E102">
@@ -13398,7 +13406,7 @@
       <c r="B103" t="s">
         <v>27</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <v>2004</v>
       </c>
       <c r="E103">
@@ -13445,7 +13453,7 @@
       <c r="B104" t="s">
         <v>27</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>2003</v>
       </c>
       <c r="E104">
@@ -13492,7 +13500,7 @@
       <c r="B105" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>2002</v>
       </c>
       <c r="E105">
@@ -13539,7 +13547,7 @@
       <c r="B106" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>2001</v>
       </c>
       <c r="E106">
@@ -13586,7 +13594,7 @@
       <c r="B107" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>2000</v>
       </c>
       <c r="E107">
@@ -13633,7 +13641,7 @@
       <c r="B108" t="s">
         <v>27</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>1999</v>
       </c>
       <c r="E108">
@@ -13680,7 +13688,7 @@
       <c r="B109" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>1998</v>
       </c>
       <c r="E109">
@@ -13727,7 +13735,7 @@
       <c r="B110" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>1997</v>
       </c>
       <c r="E110">
@@ -13774,7 +13782,7 @@
       <c r="B111" t="s">
         <v>27</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>1996</v>
       </c>
       <c r="E111">
@@ -13821,7 +13829,7 @@
       <c r="B112" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>1995</v>
       </c>
       <c r="E112">
@@ -13868,7 +13876,7 @@
       <c r="B113" t="s">
         <v>27</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="3">
         <v>1994</v>
       </c>
       <c r="E113">
@@ -13915,7 +13923,7 @@
       <c r="B114" t="s">
         <v>27</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>1993</v>
       </c>
       <c r="E114">
@@ -13962,7 +13970,7 @@
       <c r="B115" t="s">
         <v>27</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>1992</v>
       </c>
       <c r="E115">
@@ -14009,7 +14017,7 @@
       <c r="B116" t="s">
         <v>27</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>1991</v>
       </c>
       <c r="E116">
@@ -14056,7 +14064,7 @@
       <c r="B117" t="s">
         <v>27</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>1990</v>
       </c>
       <c r="E117">
@@ -14103,7 +14111,7 @@
       <c r="B118" t="s">
         <v>27</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="3">
         <v>1989</v>
       </c>
       <c r="E118">
@@ -14150,7 +14158,7 @@
       <c r="B119" t="s">
         <v>27</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>1988</v>
       </c>
       <c r="E119">
@@ -14197,7 +14205,7 @@
       <c r="B120" t="s">
         <v>27</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>1987</v>
       </c>
       <c r="E120">
@@ -14244,7 +14252,7 @@
       <c r="B121" t="s">
         <v>27</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>1986</v>
       </c>
       <c r="E121">
@@ -14291,7 +14299,7 @@
       <c r="B122" t="s">
         <v>27</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>1985</v>
       </c>
       <c r="E122">
@@ -14338,7 +14346,7 @@
       <c r="B123" t="s">
         <v>27</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>1984</v>
       </c>
       <c r="E123">
@@ -14385,7 +14393,7 @@
       <c r="B124" t="s">
         <v>27</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>1983</v>
       </c>
       <c r="E124">
@@ -14432,7 +14440,7 @@
       <c r="B125" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>1982</v>
       </c>
       <c r="E125">
@@ -14479,7 +14487,7 @@
       <c r="B126" t="s">
         <v>27</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>1981</v>
       </c>
       <c r="E126">
@@ -14526,7 +14534,7 @@
       <c r="B127" t="s">
         <v>27</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>1980</v>
       </c>
       <c r="E127">
@@ -14573,7 +14581,7 @@
       <c r="B128" t="s">
         <v>27</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>1979</v>
       </c>
       <c r="E128">
@@ -14624,7 +14632,7 @@
         <f>_xlfn.CONCAT(A129,", ", B129)</f>
         <v>Indiana Dunes NP, Indiana</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>2020</v>
       </c>
       <c r="E129">
@@ -14675,7 +14683,7 @@
       <c r="B130" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>2019</v>
       </c>
       <c r="E130">
@@ -14722,7 +14730,7 @@
       <c r="B131" t="s">
         <v>29</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>2018</v>
       </c>
       <c r="E131">
@@ -14769,7 +14777,7 @@
       <c r="B132" t="s">
         <v>29</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>2017</v>
       </c>
       <c r="E132">
@@ -14816,7 +14824,7 @@
       <c r="B133" t="s">
         <v>29</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>2016</v>
       </c>
       <c r="E133">
@@ -14863,7 +14871,7 @@
       <c r="B134" t="s">
         <v>29</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="3">
         <v>2015</v>
       </c>
       <c r="E134">
@@ -14910,7 +14918,7 @@
       <c r="B135" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>2014</v>
       </c>
       <c r="E135">
@@ -14957,7 +14965,7 @@
       <c r="B136" t="s">
         <v>29</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136">
@@ -15004,7 +15012,7 @@
       <c r="B137" t="s">
         <v>29</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>2012</v>
       </c>
       <c r="E137">
@@ -15051,7 +15059,7 @@
       <c r="B138" t="s">
         <v>29</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>2011</v>
       </c>
       <c r="E138">
@@ -15098,7 +15106,7 @@
       <c r="B139" t="s">
         <v>29</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>2010</v>
       </c>
       <c r="E139">
@@ -15145,7 +15153,7 @@
       <c r="B140" t="s">
         <v>29</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="3">
         <v>2009</v>
       </c>
       <c r="E140">
@@ -15192,7 +15200,7 @@
       <c r="B141" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="3">
         <v>2008</v>
       </c>
       <c r="E141">
@@ -15239,7 +15247,7 @@
       <c r="B142" t="s">
         <v>29</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="3">
         <v>2007</v>
       </c>
       <c r="E142">
@@ -15286,7 +15294,7 @@
       <c r="B143" t="s">
         <v>29</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="3">
         <v>2006</v>
       </c>
       <c r="E143">
@@ -15333,7 +15341,7 @@
       <c r="B144" t="s">
         <v>29</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>2005</v>
       </c>
       <c r="E144">
@@ -15380,7 +15388,7 @@
       <c r="B145" t="s">
         <v>29</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="3">
         <v>2004</v>
       </c>
       <c r="E145">
@@ -15427,7 +15435,7 @@
       <c r="B146" t="s">
         <v>29</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="3">
         <v>2003</v>
       </c>
       <c r="E146">
@@ -15474,7 +15482,7 @@
       <c r="B147" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>2002</v>
       </c>
       <c r="E147">
@@ -15521,7 +15529,7 @@
       <c r="B148" t="s">
         <v>29</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>2001</v>
       </c>
       <c r="E148">
@@ -15568,7 +15576,7 @@
       <c r="B149" t="s">
         <v>29</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="3">
         <v>2000</v>
       </c>
       <c r="E149">
@@ -15615,7 +15623,7 @@
       <c r="B150" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="3">
         <v>1999</v>
       </c>
       <c r="E150">
@@ -15662,7 +15670,7 @@
       <c r="B151" t="s">
         <v>29</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="3">
         <v>1998</v>
       </c>
       <c r="E151">
@@ -15709,7 +15717,7 @@
       <c r="B152" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="3">
         <v>1997</v>
       </c>
       <c r="E152">
@@ -15756,7 +15764,7 @@
       <c r="B153" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="3">
         <v>1996</v>
       </c>
       <c r="E153">
@@ -15803,7 +15811,7 @@
       <c r="B154" t="s">
         <v>29</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="3">
         <v>1995</v>
       </c>
       <c r="E154">
@@ -15850,7 +15858,7 @@
       <c r="B155" t="s">
         <v>29</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="3">
         <v>1994</v>
       </c>
       <c r="E155">
@@ -15897,7 +15905,7 @@
       <c r="B156" t="s">
         <v>29</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="3">
         <v>1993</v>
       </c>
       <c r="E156">
@@ -15944,7 +15952,7 @@
       <c r="B157" t="s">
         <v>29</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>1992</v>
       </c>
       <c r="E157">
@@ -15991,7 +15999,7 @@
       <c r="B158" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="3">
         <v>1991</v>
       </c>
       <c r="E158">
@@ -16038,7 +16046,7 @@
       <c r="B159" t="s">
         <v>29</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="3">
         <v>1990</v>
       </c>
       <c r="E159">
@@ -16085,7 +16093,7 @@
       <c r="B160" t="s">
         <v>29</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="3">
         <v>1989</v>
       </c>
       <c r="E160">
@@ -16132,7 +16140,7 @@
       <c r="B161" t="s">
         <v>29</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="3">
         <v>1988</v>
       </c>
       <c r="E161">
@@ -16179,7 +16187,7 @@
       <c r="B162" t="s">
         <v>29</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="3">
         <v>1987</v>
       </c>
       <c r="E162">
@@ -16226,7 +16234,7 @@
       <c r="B163" t="s">
         <v>29</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="3">
         <v>1986</v>
       </c>
       <c r="E163">
@@ -16273,7 +16281,7 @@
       <c r="B164" t="s">
         <v>29</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="3">
         <v>1985</v>
       </c>
       <c r="E164">
@@ -16320,7 +16328,7 @@
       <c r="B165" t="s">
         <v>29</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="3">
         <v>1984</v>
       </c>
       <c r="E165">
@@ -16367,7 +16375,7 @@
       <c r="B166" t="s">
         <v>29</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="3">
         <v>1983</v>
       </c>
       <c r="E166">
@@ -16414,7 +16422,7 @@
       <c r="B167" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="3">
         <v>1982</v>
       </c>
       <c r="E167">
@@ -16461,7 +16469,7 @@
       <c r="B168" t="s">
         <v>29</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="3">
         <v>1981</v>
       </c>
       <c r="E168">
@@ -16508,7 +16516,7 @@
       <c r="B169" t="s">
         <v>29</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="3">
         <v>1980</v>
       </c>
       <c r="E169">
@@ -16555,7 +16563,7 @@
       <c r="B170" t="s">
         <v>29</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="3">
         <v>1979</v>
       </c>
       <c r="E170">
@@ -16606,7 +16614,7 @@
         <f>_xlfn.CONCAT(A171,", ", B171)</f>
         <v>Sleeping Bear Dunes NL, Michigan</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="3">
         <v>2020</v>
       </c>
       <c r="E171">
@@ -16657,7 +16665,7 @@
       <c r="B172" t="s">
         <v>28</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="3">
         <v>2019</v>
       </c>
       <c r="E172">
@@ -16704,7 +16712,7 @@
       <c r="B173" t="s">
         <v>28</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D173" s="3">
         <v>2018</v>
       </c>
       <c r="E173">
@@ -16751,7 +16759,7 @@
       <c r="B174" t="s">
         <v>28</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="3">
         <v>2017</v>
       </c>
       <c r="E174">
@@ -16798,7 +16806,7 @@
       <c r="B175" t="s">
         <v>28</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="3">
         <v>2016</v>
       </c>
       <c r="E175">
@@ -16845,7 +16853,7 @@
       <c r="B176" t="s">
         <v>28</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="3">
         <v>2015</v>
       </c>
       <c r="E176">
@@ -16892,7 +16900,7 @@
       <c r="B177" t="s">
         <v>28</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="3">
         <v>2014</v>
       </c>
       <c r="E177">
@@ -16939,7 +16947,7 @@
       <c r="B178" t="s">
         <v>28</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="3">
         <v>2013</v>
       </c>
       <c r="E178">
@@ -16986,7 +16994,7 @@
       <c r="B179" t="s">
         <v>28</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="3">
         <v>2012</v>
       </c>
       <c r="E179">
@@ -17033,7 +17041,7 @@
       <c r="B180" t="s">
         <v>28</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="3">
         <v>2011</v>
       </c>
       <c r="E180">
@@ -17080,7 +17088,7 @@
       <c r="B181" t="s">
         <v>28</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="3">
         <v>2010</v>
       </c>
       <c r="E181">
@@ -17127,7 +17135,7 @@
       <c r="B182" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="3">
         <v>2009</v>
       </c>
       <c r="E182">
@@ -17174,7 +17182,7 @@
       <c r="B183" t="s">
         <v>28</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="3">
         <v>2008</v>
       </c>
       <c r="E183">
@@ -17221,7 +17229,7 @@
       <c r="B184" t="s">
         <v>28</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="3">
         <v>2007</v>
       </c>
       <c r="E184">
@@ -17268,7 +17276,7 @@
       <c r="B185" t="s">
         <v>28</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="3">
         <v>2006</v>
       </c>
       <c r="E185">
@@ -17315,7 +17323,7 @@
       <c r="B186" t="s">
         <v>28</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="3">
         <v>2005</v>
       </c>
       <c r="E186">
@@ -17362,7 +17370,7 @@
       <c r="B187" t="s">
         <v>28</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="3">
         <v>2004</v>
       </c>
       <c r="E187">
@@ -17409,7 +17417,7 @@
       <c r="B188" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="3">
         <v>2003</v>
       </c>
       <c r="E188">
@@ -17456,7 +17464,7 @@
       <c r="B189" t="s">
         <v>28</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="3">
         <v>2002</v>
       </c>
       <c r="E189">
@@ -17503,7 +17511,7 @@
       <c r="B190" t="s">
         <v>28</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="3">
         <v>2001</v>
       </c>
       <c r="E190">
@@ -17550,7 +17558,7 @@
       <c r="B191" t="s">
         <v>28</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="3">
         <v>2000</v>
       </c>
       <c r="E191">
@@ -17597,7 +17605,7 @@
       <c r="B192" t="s">
         <v>28</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="3">
         <v>1999</v>
       </c>
       <c r="E192">
@@ -17644,7 +17652,7 @@
       <c r="B193" t="s">
         <v>28</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="3">
         <v>1998</v>
       </c>
       <c r="E193">
@@ -17691,7 +17699,7 @@
       <c r="B194" t="s">
         <v>28</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="3">
         <v>1997</v>
       </c>
       <c r="E194">
@@ -17738,7 +17746,7 @@
       <c r="B195" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="4">
+      <c r="D195" s="3">
         <v>1996</v>
       </c>
       <c r="E195">
@@ -17785,7 +17793,7 @@
       <c r="B196" t="s">
         <v>28</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="3">
         <v>1995</v>
       </c>
       <c r="E196">
@@ -17832,7 +17840,7 @@
       <c r="B197" t="s">
         <v>28</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="3">
         <v>1994</v>
       </c>
       <c r="E197">
@@ -17879,7 +17887,7 @@
       <c r="B198" t="s">
         <v>28</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="3">
         <v>1993</v>
       </c>
       <c r="E198">
@@ -17926,7 +17934,7 @@
       <c r="B199" t="s">
         <v>28</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="3">
         <v>1992</v>
       </c>
       <c r="E199">
@@ -17973,7 +17981,7 @@
       <c r="B200" t="s">
         <v>28</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="3">
         <v>1991</v>
       </c>
       <c r="E200">
@@ -18020,7 +18028,7 @@
       <c r="B201" t="s">
         <v>28</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="3">
         <v>1990</v>
       </c>
       <c r="E201">
@@ -18067,7 +18075,7 @@
       <c r="B202" t="s">
         <v>28</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="3">
         <v>1989</v>
       </c>
       <c r="E202">
@@ -18114,7 +18122,7 @@
       <c r="B203" t="s">
         <v>28</v>
       </c>
-      <c r="D203" s="4">
+      <c r="D203" s="3">
         <v>1988</v>
       </c>
       <c r="E203">
@@ -18161,7 +18169,7 @@
       <c r="B204" t="s">
         <v>28</v>
       </c>
-      <c r="D204" s="4">
+      <c r="D204" s="3">
         <v>1987</v>
       </c>
       <c r="E204">
@@ -18208,7 +18216,7 @@
       <c r="B205" t="s">
         <v>28</v>
       </c>
-      <c r="D205" s="4">
+      <c r="D205" s="3">
         <v>1986</v>
       </c>
       <c r="E205">
@@ -18255,7 +18263,7 @@
       <c r="B206" t="s">
         <v>28</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="3">
         <v>1985</v>
       </c>
       <c r="E206">
@@ -18302,7 +18310,7 @@
       <c r="B207" t="s">
         <v>28</v>
       </c>
-      <c r="D207" s="4">
+      <c r="D207" s="3">
         <v>1984</v>
       </c>
       <c r="E207">
@@ -18349,7 +18357,7 @@
       <c r="B208" t="s">
         <v>28</v>
       </c>
-      <c r="D208" s="4">
+      <c r="D208" s="3">
         <v>1983</v>
       </c>
       <c r="E208">
@@ -18396,7 +18404,7 @@
       <c r="B209" t="s">
         <v>28</v>
       </c>
-      <c r="D209" s="4">
+      <c r="D209" s="3">
         <v>1982</v>
       </c>
       <c r="E209">
@@ -18443,7 +18451,7 @@
       <c r="B210" t="s">
         <v>28</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D210" s="3">
         <v>1981</v>
       </c>
       <c r="E210">
@@ -18490,7 +18498,7 @@
       <c r="B211" t="s">
         <v>28</v>
       </c>
-      <c r="D211" s="4">
+      <c r="D211" s="3">
         <v>1980</v>
       </c>
       <c r="E211">
@@ -18537,7 +18545,7 @@
       <c r="B212" t="s">
         <v>28</v>
       </c>
-      <c r="D212" s="4">
+      <c r="D212" s="3">
         <v>1979</v>
       </c>
       <c r="E212">
@@ -18588,7 +18596,7 @@
         <f>_xlfn.CONCAT(A213,", ", B213)</f>
         <v>Gettysburg NMP, Pennsylvania</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D213" s="3">
         <v>2020</v>
       </c>
       <c r="E213">
@@ -18639,7 +18647,7 @@
       <c r="B214" t="s">
         <v>26</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D214" s="3">
         <v>2019</v>
       </c>
       <c r="E214">
@@ -18686,7 +18694,7 @@
       <c r="B215" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="4">
+      <c r="D215" s="3">
         <v>2018</v>
       </c>
       <c r="E215">
@@ -18733,7 +18741,7 @@
       <c r="B216" t="s">
         <v>26</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D216" s="3">
         <v>2017</v>
       </c>
       <c r="E216">
@@ -18780,7 +18788,7 @@
       <c r="B217" t="s">
         <v>26</v>
       </c>
-      <c r="D217" s="4">
+      <c r="D217" s="3">
         <v>2016</v>
       </c>
       <c r="E217">
@@ -18827,7 +18835,7 @@
       <c r="B218" t="s">
         <v>26</v>
       </c>
-      <c r="D218" s="4">
+      <c r="D218" s="3">
         <v>2015</v>
       </c>
       <c r="E218">
@@ -18874,7 +18882,7 @@
       <c r="B219" t="s">
         <v>26</v>
       </c>
-      <c r="D219" s="4">
+      <c r="D219" s="3">
         <v>2014</v>
       </c>
       <c r="E219">
@@ -18921,7 +18929,7 @@
       <c r="B220" t="s">
         <v>26</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D220" s="3">
         <v>2013</v>
       </c>
       <c r="E220">
@@ -18968,7 +18976,7 @@
       <c r="B221" t="s">
         <v>26</v>
       </c>
-      <c r="D221" s="4">
+      <c r="D221" s="3">
         <v>2012</v>
       </c>
       <c r="E221">
@@ -19015,7 +19023,7 @@
       <c r="B222" t="s">
         <v>26</v>
       </c>
-      <c r="D222" s="4">
+      <c r="D222" s="3">
         <v>2011</v>
       </c>
       <c r="E222">
@@ -19062,7 +19070,7 @@
       <c r="B223" t="s">
         <v>26</v>
       </c>
-      <c r="D223" s="4">
+      <c r="D223" s="3">
         <v>2010</v>
       </c>
       <c r="E223">
@@ -19109,7 +19117,7 @@
       <c r="B224" t="s">
         <v>26</v>
       </c>
-      <c r="D224" s="4">
+      <c r="D224" s="3">
         <v>2009</v>
       </c>
       <c r="E224">
@@ -19156,7 +19164,7 @@
       <c r="B225" t="s">
         <v>26</v>
       </c>
-      <c r="D225" s="4">
+      <c r="D225" s="3">
         <v>2008</v>
       </c>
       <c r="E225">
@@ -19203,7 +19211,7 @@
       <c r="B226" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="4">
+      <c r="D226" s="3">
         <v>2007</v>
       </c>
       <c r="E226">
@@ -19250,7 +19258,7 @@
       <c r="B227" t="s">
         <v>26</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="3">
         <v>2006</v>
       </c>
       <c r="E227">
@@ -19297,7 +19305,7 @@
       <c r="B228" t="s">
         <v>26</v>
       </c>
-      <c r="D228" s="4">
+      <c r="D228" s="3">
         <v>2005</v>
       </c>
       <c r="E228">
@@ -19344,7 +19352,7 @@
       <c r="B229" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="4">
+      <c r="D229" s="3">
         <v>2004</v>
       </c>
       <c r="E229">
@@ -19391,7 +19399,7 @@
       <c r="B230" t="s">
         <v>26</v>
       </c>
-      <c r="D230" s="4">
+      <c r="D230" s="3">
         <v>2003</v>
       </c>
       <c r="E230">
@@ -19438,7 +19446,7 @@
       <c r="B231" t="s">
         <v>26</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="3">
         <v>2002</v>
       </c>
       <c r="E231">
@@ -19485,7 +19493,7 @@
       <c r="B232" t="s">
         <v>26</v>
       </c>
-      <c r="D232" s="4">
+      <c r="D232" s="3">
         <v>2001</v>
       </c>
       <c r="E232">
@@ -19532,7 +19540,7 @@
       <c r="B233" t="s">
         <v>26</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="3">
         <v>2000</v>
       </c>
       <c r="E233">
@@ -19579,7 +19587,7 @@
       <c r="B234" t="s">
         <v>26</v>
       </c>
-      <c r="D234" s="4">
+      <c r="D234" s="3">
         <v>1999</v>
       </c>
       <c r="E234">
@@ -19626,7 +19634,7 @@
       <c r="B235" t="s">
         <v>26</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="3">
         <v>1998</v>
       </c>
       <c r="E235">
@@ -19673,7 +19681,7 @@
       <c r="B236" t="s">
         <v>26</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="3">
         <v>1997</v>
       </c>
       <c r="E236">
@@ -19720,7 +19728,7 @@
       <c r="B237" t="s">
         <v>26</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="3">
         <v>1996</v>
       </c>
       <c r="E237">
@@ -19767,7 +19775,7 @@
       <c r="B238" t="s">
         <v>26</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="3">
         <v>1995</v>
       </c>
       <c r="E238">
@@ -19814,7 +19822,7 @@
       <c r="B239" t="s">
         <v>26</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="3">
         <v>1994</v>
       </c>
       <c r="E239">
@@ -19861,7 +19869,7 @@
       <c r="B240" t="s">
         <v>26</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="3">
         <v>1993</v>
       </c>
       <c r="E240">
@@ -19908,7 +19916,7 @@
       <c r="B241" t="s">
         <v>26</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="3">
         <v>1992</v>
       </c>
       <c r="E241">
@@ -19955,7 +19963,7 @@
       <c r="B242" t="s">
         <v>26</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="3">
         <v>1991</v>
       </c>
       <c r="E242">
@@ -20002,7 +20010,7 @@
       <c r="B243" t="s">
         <v>26</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="3">
         <v>1990</v>
       </c>
       <c r="E243">
@@ -20049,7 +20057,7 @@
       <c r="B244" t="s">
         <v>26</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="3">
         <v>1989</v>
       </c>
       <c r="E244">
@@ -20096,7 +20104,7 @@
       <c r="B245" t="s">
         <v>26</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="3">
         <v>1988</v>
       </c>
       <c r="E245">
@@ -20143,7 +20151,7 @@
       <c r="B246" t="s">
         <v>26</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="3">
         <v>1987</v>
       </c>
       <c r="E246">
@@ -20190,7 +20198,7 @@
       <c r="B247" t="s">
         <v>26</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="3">
         <v>1986</v>
       </c>
       <c r="E247">
@@ -20237,7 +20245,7 @@
       <c r="B248" t="s">
         <v>26</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="3">
         <v>1985</v>
       </c>
       <c r="E248">
@@ -20284,7 +20292,7 @@
       <c r="B249" t="s">
         <v>26</v>
       </c>
-      <c r="D249" s="4">
+      <c r="D249" s="3">
         <v>1984</v>
       </c>
       <c r="E249">
@@ -20331,7 +20339,7 @@
       <c r="B250" t="s">
         <v>26</v>
       </c>
-      <c r="D250" s="4">
+      <c r="D250" s="3">
         <v>1983</v>
       </c>
       <c r="E250">
@@ -20378,7 +20386,7 @@
       <c r="B251" t="s">
         <v>26</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="3">
         <v>1982</v>
       </c>
       <c r="E251">
@@ -20425,7 +20433,7 @@
       <c r="B252" t="s">
         <v>26</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="3">
         <v>1981</v>
       </c>
       <c r="E252">
@@ -20472,7 +20480,7 @@
       <c r="B253" t="s">
         <v>26</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="3">
         <v>1980</v>
       </c>
       <c r="E253">
@@ -20519,7 +20527,7 @@
       <c r="B254" t="s">
         <v>26</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="3">
         <v>1979</v>
       </c>
       <c r="E254">
@@ -20570,7 +20578,7 @@
         <f>_xlfn.CONCAT(A255,", ", B255)</f>
         <v>Delaware Water Gap NRA, Pennsylvania</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="3">
         <v>2020</v>
       </c>
       <c r="E255">
@@ -20621,7 +20629,7 @@
       <c r="B256" t="s">
         <v>26</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="3">
         <v>2019</v>
       </c>
       <c r="E256">
@@ -20668,7 +20676,7 @@
       <c r="B257" t="s">
         <v>26</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="3">
         <v>2018</v>
       </c>
       <c r="E257">
@@ -20715,7 +20723,7 @@
       <c r="B258" t="s">
         <v>26</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="3">
         <v>2017</v>
       </c>
       <c r="E258">
@@ -20762,7 +20770,7 @@
       <c r="B259" t="s">
         <v>26</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="3">
         <v>2016</v>
       </c>
       <c r="E259">
@@ -20809,7 +20817,7 @@
       <c r="B260" t="s">
         <v>26</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="3">
         <v>2015</v>
       </c>
       <c r="E260">
@@ -20856,7 +20864,7 @@
       <c r="B261" t="s">
         <v>26</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="3">
         <v>2014</v>
       </c>
       <c r="E261">
@@ -20903,7 +20911,7 @@
       <c r="B262" t="s">
         <v>26</v>
       </c>
-      <c r="D262" s="4">
+      <c r="D262" s="3">
         <v>2013</v>
       </c>
       <c r="E262">
@@ -20950,7 +20958,7 @@
       <c r="B263" t="s">
         <v>26</v>
       </c>
-      <c r="D263" s="4">
+      <c r="D263" s="3">
         <v>2012</v>
       </c>
       <c r="E263">
@@ -20997,7 +21005,7 @@
       <c r="B264" t="s">
         <v>26</v>
       </c>
-      <c r="D264" s="4">
+      <c r="D264" s="3">
         <v>2011</v>
       </c>
       <c r="E264">
@@ -21044,7 +21052,7 @@
       <c r="B265" t="s">
         <v>26</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="3">
         <v>2010</v>
       </c>
       <c r="E265">
@@ -21091,7 +21099,7 @@
       <c r="B266" t="s">
         <v>26</v>
       </c>
-      <c r="D266" s="4">
+      <c r="D266" s="3">
         <v>2009</v>
       </c>
       <c r="E266">
@@ -21138,7 +21146,7 @@
       <c r="B267" t="s">
         <v>26</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="3">
         <v>2008</v>
       </c>
       <c r="E267">
@@ -21185,7 +21193,7 @@
       <c r="B268" t="s">
         <v>26</v>
       </c>
-      <c r="D268" s="4">
+      <c r="D268" s="3">
         <v>2007</v>
       </c>
       <c r="E268">
@@ -21232,7 +21240,7 @@
       <c r="B269" t="s">
         <v>26</v>
       </c>
-      <c r="D269" s="4">
+      <c r="D269" s="3">
         <v>2006</v>
       </c>
       <c r="E269">
@@ -21279,7 +21287,7 @@
       <c r="B270" t="s">
         <v>26</v>
       </c>
-      <c r="D270" s="4">
+      <c r="D270" s="3">
         <v>2005</v>
       </c>
       <c r="E270">
@@ -21326,7 +21334,7 @@
       <c r="B271" t="s">
         <v>26</v>
       </c>
-      <c r="D271" s="4">
+      <c r="D271" s="3">
         <v>2004</v>
       </c>
       <c r="E271">
@@ -21373,7 +21381,7 @@
       <c r="B272" t="s">
         <v>26</v>
       </c>
-      <c r="D272" s="4">
+      <c r="D272" s="3">
         <v>2003</v>
       </c>
       <c r="E272">
@@ -21420,7 +21428,7 @@
       <c r="B273" t="s">
         <v>26</v>
       </c>
-      <c r="D273" s="4">
+      <c r="D273" s="3">
         <v>2002</v>
       </c>
       <c r="E273">
@@ -21467,7 +21475,7 @@
       <c r="B274" t="s">
         <v>26</v>
       </c>
-      <c r="D274" s="4">
+      <c r="D274" s="3">
         <v>2001</v>
       </c>
       <c r="E274">
@@ -21514,7 +21522,7 @@
       <c r="B275" t="s">
         <v>26</v>
       </c>
-      <c r="D275" s="4">
+      <c r="D275" s="3">
         <v>2000</v>
       </c>
       <c r="E275">
@@ -21561,7 +21569,7 @@
       <c r="B276" t="s">
         <v>26</v>
       </c>
-      <c r="D276" s="4">
+      <c r="D276" s="3">
         <v>1999</v>
       </c>
       <c r="E276">
@@ -21608,7 +21616,7 @@
       <c r="B277" t="s">
         <v>26</v>
       </c>
-      <c r="D277" s="4">
+      <c r="D277" s="3">
         <v>1998</v>
       </c>
       <c r="E277">
@@ -21655,7 +21663,7 @@
       <c r="B278" t="s">
         <v>26</v>
       </c>
-      <c r="D278" s="4">
+      <c r="D278" s="3">
         <v>1997</v>
       </c>
       <c r="E278">
@@ -21702,7 +21710,7 @@
       <c r="B279" t="s">
         <v>26</v>
       </c>
-      <c r="D279" s="4">
+      <c r="D279" s="3">
         <v>1996</v>
       </c>
       <c r="E279">
@@ -21749,7 +21757,7 @@
       <c r="B280" t="s">
         <v>26</v>
       </c>
-      <c r="D280" s="4">
+      <c r="D280" s="3">
         <v>1995</v>
       </c>
       <c r="E280">
@@ -21796,7 +21804,7 @@
       <c r="B281" t="s">
         <v>26</v>
       </c>
-      <c r="D281" s="4">
+      <c r="D281" s="3">
         <v>1994</v>
       </c>
       <c r="E281">
@@ -21843,7 +21851,7 @@
       <c r="B282" t="s">
         <v>26</v>
       </c>
-      <c r="D282" s="4">
+      <c r="D282" s="3">
         <v>1993</v>
       </c>
       <c r="E282">
@@ -21890,7 +21898,7 @@
       <c r="B283" t="s">
         <v>26</v>
       </c>
-      <c r="D283" s="4">
+      <c r="D283" s="3">
         <v>1992</v>
       </c>
       <c r="E283">
@@ -21937,7 +21945,7 @@
       <c r="B284" t="s">
         <v>26</v>
       </c>
-      <c r="D284" s="4">
+      <c r="D284" s="3">
         <v>1991</v>
       </c>
       <c r="E284">
@@ -21984,7 +21992,7 @@
       <c r="B285" t="s">
         <v>26</v>
       </c>
-      <c r="D285" s="4">
+      <c r="D285" s="3">
         <v>1990</v>
       </c>
       <c r="E285">
@@ -22031,7 +22039,7 @@
       <c r="B286" t="s">
         <v>26</v>
       </c>
-      <c r="D286" s="4">
+      <c r="D286" s="3">
         <v>1989</v>
       </c>
       <c r="E286">
@@ -22078,7 +22086,7 @@
       <c r="B287" t="s">
         <v>26</v>
       </c>
-      <c r="D287" s="4">
+      <c r="D287" s="3">
         <v>1988</v>
       </c>
       <c r="E287">
@@ -22125,7 +22133,7 @@
       <c r="B288" t="s">
         <v>26</v>
       </c>
-      <c r="D288" s="4">
+      <c r="D288" s="3">
         <v>1987</v>
       </c>
       <c r="E288">
@@ -22172,7 +22180,7 @@
       <c r="B289" t="s">
         <v>26</v>
       </c>
-      <c r="D289" s="4">
+      <c r="D289" s="3">
         <v>1986</v>
       </c>
       <c r="E289">
@@ -22219,7 +22227,7 @@
       <c r="B290" t="s">
         <v>26</v>
       </c>
-      <c r="D290" s="4">
+      <c r="D290" s="3">
         <v>1985</v>
       </c>
       <c r="E290">
@@ -22266,7 +22274,7 @@
       <c r="B291" t="s">
         <v>26</v>
       </c>
-      <c r="D291" s="4">
+      <c r="D291" s="3">
         <v>1984</v>
       </c>
       <c r="E291">
@@ -22313,7 +22321,7 @@
       <c r="B292" t="s">
         <v>26</v>
       </c>
-      <c r="D292" s="4">
+      <c r="D292" s="3">
         <v>1983</v>
       </c>
       <c r="E292">
@@ -22360,7 +22368,7 @@
       <c r="B293" t="s">
         <v>26</v>
       </c>
-      <c r="D293" s="4">
+      <c r="D293" s="3">
         <v>1982</v>
       </c>
       <c r="E293">
@@ -22407,7 +22415,7 @@
       <c r="B294" t="s">
         <v>26</v>
       </c>
-      <c r="D294" s="4">
+      <c r="D294" s="3">
         <v>1981</v>
       </c>
       <c r="E294">
@@ -22454,7 +22462,7 @@
       <c r="B295" t="s">
         <v>26</v>
       </c>
-      <c r="D295" s="4">
+      <c r="D295" s="3">
         <v>1980</v>
       </c>
       <c r="E295">
@@ -22501,7 +22509,7 @@
       <c r="B296" t="s">
         <v>26</v>
       </c>
-      <c r="D296" s="4">
+      <c r="D296" s="3">
         <v>1979</v>
       </c>
       <c r="E296">
@@ -22552,7 +22560,7 @@
         <f>_xlfn.CONCAT(A297,", ", B297)</f>
         <v>Pictured Rocks NL, Michigan</v>
       </c>
-      <c r="D297" s="4">
+      <c r="D297" s="3">
         <v>2020</v>
       </c>
       <c r="E297">
@@ -22603,7 +22611,7 @@
       <c r="B298" t="s">
         <v>28</v>
       </c>
-      <c r="D298" s="4">
+      <c r="D298" s="3">
         <v>2019</v>
       </c>
       <c r="E298">
@@ -22650,7 +22658,7 @@
       <c r="B299" t="s">
         <v>28</v>
       </c>
-      <c r="D299" s="4">
+      <c r="D299" s="3">
         <v>2018</v>
       </c>
       <c r="E299">
@@ -22697,7 +22705,7 @@
       <c r="B300" t="s">
         <v>28</v>
       </c>
-      <c r="D300" s="4">
+      <c r="D300" s="3">
         <v>2017</v>
       </c>
       <c r="E300">
@@ -22744,7 +22752,7 @@
       <c r="B301" t="s">
         <v>28</v>
       </c>
-      <c r="D301" s="4">
+      <c r="D301" s="3">
         <v>2016</v>
       </c>
       <c r="E301">
@@ -22791,7 +22799,7 @@
       <c r="B302" t="s">
         <v>28</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="3">
         <v>2015</v>
       </c>
       <c r="E302">
@@ -22838,7 +22846,7 @@
       <c r="B303" t="s">
         <v>28</v>
       </c>
-      <c r="D303" s="4">
+      <c r="D303" s="3">
         <v>2014</v>
       </c>
       <c r="E303">
@@ -22885,7 +22893,7 @@
       <c r="B304" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="4">
+      <c r="D304" s="3">
         <v>2013</v>
       </c>
       <c r="E304">
@@ -22932,7 +22940,7 @@
       <c r="B305" t="s">
         <v>28</v>
       </c>
-      <c r="D305" s="4">
+      <c r="D305" s="3">
         <v>2012</v>
       </c>
       <c r="E305">
@@ -22979,7 +22987,7 @@
       <c r="B306" t="s">
         <v>28</v>
       </c>
-      <c r="D306" s="4">
+      <c r="D306" s="3">
         <v>2011</v>
       </c>
       <c r="E306">
@@ -23026,7 +23034,7 @@
       <c r="B307" t="s">
         <v>28</v>
       </c>
-      <c r="D307" s="4">
+      <c r="D307" s="3">
         <v>2010</v>
       </c>
       <c r="E307">
@@ -23073,7 +23081,7 @@
       <c r="B308" t="s">
         <v>28</v>
       </c>
-      <c r="D308" s="4">
+      <c r="D308" s="3">
         <v>2009</v>
       </c>
       <c r="E308">
@@ -23120,7 +23128,7 @@
       <c r="B309" t="s">
         <v>28</v>
       </c>
-      <c r="D309" s="4">
+      <c r="D309" s="3">
         <v>2008</v>
       </c>
       <c r="E309">
@@ -23167,7 +23175,7 @@
       <c r="B310" t="s">
         <v>28</v>
       </c>
-      <c r="D310" s="4">
+      <c r="D310" s="3">
         <v>2007</v>
       </c>
       <c r="E310">
@@ -23214,7 +23222,7 @@
       <c r="B311" t="s">
         <v>28</v>
       </c>
-      <c r="D311" s="4">
+      <c r="D311" s="3">
         <v>2006</v>
       </c>
       <c r="E311">
@@ -23261,7 +23269,7 @@
       <c r="B312" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="4">
+      <c r="D312" s="3">
         <v>2005</v>
       </c>
       <c r="E312">
@@ -23308,7 +23316,7 @@
       <c r="B313" t="s">
         <v>28</v>
       </c>
-      <c r="D313" s="4">
+      <c r="D313" s="3">
         <v>2004</v>
       </c>
       <c r="E313">
@@ -23355,7 +23363,7 @@
       <c r="B314" t="s">
         <v>28</v>
       </c>
-      <c r="D314" s="4">
+      <c r="D314" s="3">
         <v>2003</v>
       </c>
       <c r="E314">
@@ -23402,7 +23410,7 @@
       <c r="B315" t="s">
         <v>28</v>
       </c>
-      <c r="D315" s="4">
+      <c r="D315" s="3">
         <v>2002</v>
       </c>
       <c r="E315">
@@ -23449,7 +23457,7 @@
       <c r="B316" t="s">
         <v>28</v>
       </c>
-      <c r="D316" s="4">
+      <c r="D316" s="3">
         <v>2001</v>
       </c>
       <c r="E316">
@@ -23496,7 +23504,7 @@
       <c r="B317" t="s">
         <v>28</v>
       </c>
-      <c r="D317" s="4">
+      <c r="D317" s="3">
         <v>2000</v>
       </c>
       <c r="E317">
@@ -23543,7 +23551,7 @@
       <c r="B318" t="s">
         <v>28</v>
       </c>
-      <c r="D318" s="4">
+      <c r="D318" s="3">
         <v>1999</v>
       </c>
       <c r="E318">
@@ -23590,7 +23598,7 @@
       <c r="B319" t="s">
         <v>28</v>
       </c>
-      <c r="D319" s="4">
+      <c r="D319" s="3">
         <v>1998</v>
       </c>
       <c r="E319">
@@ -23637,7 +23645,7 @@
       <c r="B320" t="s">
         <v>28</v>
       </c>
-      <c r="D320" s="4">
+      <c r="D320" s="3">
         <v>1997</v>
       </c>
       <c r="E320">
@@ -23684,7 +23692,7 @@
       <c r="B321" t="s">
         <v>28</v>
       </c>
-      <c r="D321" s="4">
+      <c r="D321" s="3">
         <v>1996</v>
       </c>
       <c r="E321">
@@ -23731,7 +23739,7 @@
       <c r="B322" t="s">
         <v>28</v>
       </c>
-      <c r="D322" s="4">
+      <c r="D322" s="3">
         <v>1995</v>
       </c>
       <c r="E322">
@@ -23778,7 +23786,7 @@
       <c r="B323" t="s">
         <v>28</v>
       </c>
-      <c r="D323" s="4">
+      <c r="D323" s="3">
         <v>1994</v>
       </c>
       <c r="E323">
@@ -23825,7 +23833,7 @@
       <c r="B324" t="s">
         <v>28</v>
       </c>
-      <c r="D324" s="4">
+      <c r="D324" s="3">
         <v>1993</v>
       </c>
       <c r="E324">
@@ -23872,7 +23880,7 @@
       <c r="B325" t="s">
         <v>28</v>
       </c>
-      <c r="D325" s="4">
+      <c r="D325" s="3">
         <v>1992</v>
       </c>
       <c r="E325">
@@ -23919,7 +23927,7 @@
       <c r="B326" t="s">
         <v>28</v>
       </c>
-      <c r="D326" s="4">
+      <c r="D326" s="3">
         <v>1991</v>
       </c>
       <c r="E326">
@@ -23966,7 +23974,7 @@
       <c r="B327" t="s">
         <v>28</v>
       </c>
-      <c r="D327" s="4">
+      <c r="D327" s="3">
         <v>1990</v>
       </c>
       <c r="E327">
@@ -24013,7 +24021,7 @@
       <c r="B328" t="s">
         <v>28</v>
       </c>
-      <c r="D328" s="4">
+      <c r="D328" s="3">
         <v>1989</v>
       </c>
       <c r="E328">
@@ -24060,7 +24068,7 @@
       <c r="B329" t="s">
         <v>28</v>
       </c>
-      <c r="D329" s="4">
+      <c r="D329" s="3">
         <v>1988</v>
       </c>
       <c r="E329">
@@ -24107,7 +24115,7 @@
       <c r="B330" t="s">
         <v>28</v>
       </c>
-      <c r="D330" s="4">
+      <c r="D330" s="3">
         <v>1987</v>
       </c>
       <c r="E330">
@@ -24154,7 +24162,7 @@
       <c r="B331" t="s">
         <v>28</v>
       </c>
-      <c r="D331" s="4">
+      <c r="D331" s="3">
         <v>1986</v>
       </c>
       <c r="E331">
@@ -24201,7 +24209,7 @@
       <c r="B332" t="s">
         <v>28</v>
       </c>
-      <c r="D332" s="4">
+      <c r="D332" s="3">
         <v>1985</v>
       </c>
       <c r="E332">
@@ -24248,7 +24256,7 @@
       <c r="B333" t="s">
         <v>28</v>
       </c>
-      <c r="D333" s="4">
+      <c r="D333" s="3">
         <v>1984</v>
       </c>
       <c r="E333">
@@ -24295,7 +24303,7 @@
       <c r="B334" t="s">
         <v>28</v>
       </c>
-      <c r="D334" s="4">
+      <c r="D334" s="3">
         <v>1983</v>
       </c>
       <c r="E334">
@@ -24342,7 +24350,7 @@
       <c r="B335" t="s">
         <v>28</v>
       </c>
-      <c r="D335" s="4">
+      <c r="D335" s="3">
         <v>1982</v>
       </c>
       <c r="E335">
@@ -24389,7 +24397,7 @@
       <c r="B336" t="s">
         <v>28</v>
       </c>
-      <c r="D336" s="4">
+      <c r="D336" s="3">
         <v>1981</v>
       </c>
       <c r="E336">
@@ -24436,7 +24444,7 @@
       <c r="B337" t="s">
         <v>28</v>
       </c>
-      <c r="D337" s="4">
+      <c r="D337" s="3">
         <v>1980</v>
       </c>
       <c r="E337">
@@ -24483,7 +24491,7 @@
       <c r="B338" t="s">
         <v>28</v>
       </c>
-      <c r="D338" s="4">
+      <c r="D338" s="3">
         <v>1979</v>
       </c>
       <c r="E338">
@@ -24534,7 +24542,7 @@
         <f>_xlfn.CONCAT(A339,", ", B339)</f>
         <v>Cumberland Gap NHP, Kentucky</v>
       </c>
-      <c r="D339" s="4">
+      <c r="D339" s="3">
         <v>2020</v>
       </c>
       <c r="E339">
@@ -24585,7 +24593,7 @@
       <c r="B340" t="s">
         <v>30</v>
       </c>
-      <c r="D340" s="4">
+      <c r="D340" s="3">
         <v>2019</v>
       </c>
       <c r="E340">
@@ -24632,7 +24640,7 @@
       <c r="B341" t="s">
         <v>30</v>
       </c>
-      <c r="D341" s="4">
+      <c r="D341" s="3">
         <v>2018</v>
       </c>
       <c r="E341">
@@ -24679,7 +24687,7 @@
       <c r="B342" t="s">
         <v>30</v>
       </c>
-      <c r="D342" s="4">
+      <c r="D342" s="3">
         <v>2017</v>
       </c>
       <c r="E342">
@@ -24726,7 +24734,7 @@
       <c r="B343" t="s">
         <v>30</v>
       </c>
-      <c r="D343" s="4">
+      <c r="D343" s="3">
         <v>2016</v>
       </c>
       <c r="E343">
@@ -24773,7 +24781,7 @@
       <c r="B344" t="s">
         <v>30</v>
       </c>
-      <c r="D344" s="4">
+      <c r="D344" s="3">
         <v>2015</v>
       </c>
       <c r="E344">
@@ -24820,7 +24828,7 @@
       <c r="B345" t="s">
         <v>30</v>
       </c>
-      <c r="D345" s="4">
+      <c r="D345" s="3">
         <v>2014</v>
       </c>
       <c r="E345">
@@ -24867,7 +24875,7 @@
       <c r="B346" t="s">
         <v>30</v>
       </c>
-      <c r="D346" s="4">
+      <c r="D346" s="3">
         <v>2013</v>
       </c>
       <c r="E346">
@@ -24914,7 +24922,7 @@
       <c r="B347" t="s">
         <v>30</v>
       </c>
-      <c r="D347" s="4">
+      <c r="D347" s="3">
         <v>2012</v>
       </c>
       <c r="E347">
@@ -24961,7 +24969,7 @@
       <c r="B348" t="s">
         <v>30</v>
       </c>
-      <c r="D348" s="4">
+      <c r="D348" s="3">
         <v>2011</v>
       </c>
       <c r="E348">
@@ -25008,7 +25016,7 @@
       <c r="B349" t="s">
         <v>30</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="3">
         <v>2010</v>
       </c>
       <c r="E349">
@@ -25055,7 +25063,7 @@
       <c r="B350" t="s">
         <v>30</v>
       </c>
-      <c r="D350" s="4">
+      <c r="D350" s="3">
         <v>2009</v>
       </c>
       <c r="E350">
@@ -25102,7 +25110,7 @@
       <c r="B351" t="s">
         <v>30</v>
       </c>
-      <c r="D351" s="4">
+      <c r="D351" s="3">
         <v>2008</v>
       </c>
       <c r="E351">
@@ -25149,7 +25157,7 @@
       <c r="B352" t="s">
         <v>30</v>
       </c>
-      <c r="D352" s="4">
+      <c r="D352" s="3">
         <v>2007</v>
       </c>
       <c r="E352">
@@ -25196,7 +25204,7 @@
       <c r="B353" t="s">
         <v>30</v>
       </c>
-      <c r="D353" s="4">
+      <c r="D353" s="3">
         <v>2006</v>
       </c>
       <c r="E353">
@@ -25243,7 +25251,7 @@
       <c r="B354" t="s">
         <v>30</v>
       </c>
-      <c r="D354" s="4">
+      <c r="D354" s="3">
         <v>2005</v>
       </c>
       <c r="E354">
@@ -25290,7 +25298,7 @@
       <c r="B355" t="s">
         <v>30</v>
       </c>
-      <c r="D355" s="4">
+      <c r="D355" s="3">
         <v>2004</v>
       </c>
       <c r="E355">
@@ -25337,7 +25345,7 @@
       <c r="B356" t="s">
         <v>30</v>
       </c>
-      <c r="D356" s="4">
+      <c r="D356" s="3">
         <v>2003</v>
       </c>
       <c r="E356">
@@ -25384,7 +25392,7 @@
       <c r="B357" t="s">
         <v>30</v>
       </c>
-      <c r="D357" s="4">
+      <c r="D357" s="3">
         <v>2002</v>
       </c>
       <c r="E357">
@@ -25431,7 +25439,7 @@
       <c r="B358" t="s">
         <v>30</v>
       </c>
-      <c r="D358" s="4">
+      <c r="D358" s="3">
         <v>2001</v>
       </c>
       <c r="E358">
@@ -25478,7 +25486,7 @@
       <c r="B359" t="s">
         <v>30</v>
       </c>
-      <c r="D359" s="4">
+      <c r="D359" s="3">
         <v>2000</v>
       </c>
       <c r="E359">
@@ -25525,7 +25533,7 @@
       <c r="B360" t="s">
         <v>30</v>
       </c>
-      <c r="D360" s="4">
+      <c r="D360" s="3">
         <v>1999</v>
       </c>
       <c r="E360">
@@ -25572,7 +25580,7 @@
       <c r="B361" t="s">
         <v>30</v>
       </c>
-      <c r="D361" s="4">
+      <c r="D361" s="3">
         <v>1998</v>
       </c>
       <c r="E361">
@@ -25619,7 +25627,7 @@
       <c r="B362" t="s">
         <v>30</v>
       </c>
-      <c r="D362" s="4">
+      <c r="D362" s="3">
         <v>1997</v>
       </c>
       <c r="E362">
@@ -25666,7 +25674,7 @@
       <c r="B363" t="s">
         <v>30</v>
       </c>
-      <c r="D363" s="4">
+      <c r="D363" s="3">
         <v>1996</v>
       </c>
       <c r="E363">
@@ -25713,7 +25721,7 @@
       <c r="B364" t="s">
         <v>30</v>
       </c>
-      <c r="D364" s="4">
+      <c r="D364" s="3">
         <v>1995</v>
       </c>
       <c r="E364">
@@ -25760,7 +25768,7 @@
       <c r="B365" t="s">
         <v>30</v>
       </c>
-      <c r="D365" s="4">
+      <c r="D365" s="3">
         <v>1994</v>
       </c>
       <c r="E365">
@@ -25807,7 +25815,7 @@
       <c r="B366" t="s">
         <v>30</v>
       </c>
-      <c r="D366" s="4">
+      <c r="D366" s="3">
         <v>1993</v>
       </c>
       <c r="E366">
@@ -25854,7 +25862,7 @@
       <c r="B367" t="s">
         <v>30</v>
       </c>
-      <c r="D367" s="4">
+      <c r="D367" s="3">
         <v>1992</v>
       </c>
       <c r="E367">
@@ -25901,7 +25909,7 @@
       <c r="B368" t="s">
         <v>30</v>
       </c>
-      <c r="D368" s="4">
+      <c r="D368" s="3">
         <v>1991</v>
       </c>
       <c r="E368">
@@ -25948,7 +25956,7 @@
       <c r="B369" t="s">
         <v>30</v>
       </c>
-      <c r="D369" s="4">
+      <c r="D369" s="3">
         <v>1990</v>
       </c>
       <c r="E369">
@@ -25995,7 +26003,7 @@
       <c r="B370" t="s">
         <v>30</v>
       </c>
-      <c r="D370" s="4">
+      <c r="D370" s="3">
         <v>1989</v>
       </c>
       <c r="E370">
@@ -26042,7 +26050,7 @@
       <c r="B371" t="s">
         <v>30</v>
       </c>
-      <c r="D371" s="4">
+      <c r="D371" s="3">
         <v>1988</v>
       </c>
       <c r="E371">
@@ -26089,7 +26097,7 @@
       <c r="B372" t="s">
         <v>30</v>
       </c>
-      <c r="D372" s="4">
+      <c r="D372" s="3">
         <v>1987</v>
       </c>
       <c r="E372">
@@ -26136,7 +26144,7 @@
       <c r="B373" t="s">
         <v>30</v>
       </c>
-      <c r="D373" s="4">
+      <c r="D373" s="3">
         <v>1986</v>
       </c>
       <c r="E373">
@@ -26183,7 +26191,7 @@
       <c r="B374" t="s">
         <v>30</v>
       </c>
-      <c r="D374" s="4">
+      <c r="D374" s="3">
         <v>1985</v>
       </c>
       <c r="E374">
@@ -26230,7 +26238,7 @@
       <c r="B375" t="s">
         <v>30</v>
       </c>
-      <c r="D375" s="4">
+      <c r="D375" s="3">
         <v>1984</v>
       </c>
       <c r="E375">
@@ -26277,7 +26285,7 @@
       <c r="B376" t="s">
         <v>30</v>
       </c>
-      <c r="D376" s="4">
+      <c r="D376" s="3">
         <v>1983</v>
       </c>
       <c r="E376">
@@ -26324,7 +26332,7 @@
       <c r="B377" t="s">
         <v>30</v>
       </c>
-      <c r="D377" s="4">
+      <c r="D377" s="3">
         <v>1982</v>
       </c>
       <c r="E377">
@@ -26371,7 +26379,7 @@
       <c r="B378" t="s">
         <v>30</v>
       </c>
-      <c r="D378" s="4">
+      <c r="D378" s="3">
         <v>1981</v>
       </c>
       <c r="E378">
@@ -26418,7 +26426,7 @@
       <c r="B379" t="s">
         <v>30</v>
       </c>
-      <c r="D379" s="4">
+      <c r="D379" s="3">
         <v>1980</v>
       </c>
       <c r="E379">
@@ -26465,7 +26473,7 @@
       <c r="B380" t="s">
         <v>30</v>
       </c>
-      <c r="D380" s="4">
+      <c r="D380" s="3">
         <v>1979</v>
       </c>
       <c r="E380">
@@ -26516,7 +26524,7 @@
         <f>_xlfn.CONCAT(A381,", ", B381)</f>
         <v>Mammoth Cave NP, Kentucky</v>
       </c>
-      <c r="D381" s="4">
+      <c r="D381" s="3">
         <v>2020</v>
       </c>
       <c r="E381">
@@ -26567,7 +26575,7 @@
       <c r="B382" t="s">
         <v>30</v>
       </c>
-      <c r="D382" s="4">
+      <c r="D382" s="3">
         <v>2019</v>
       </c>
       <c r="E382">
@@ -26614,7 +26622,7 @@
       <c r="B383" t="s">
         <v>30</v>
       </c>
-      <c r="D383" s="4">
+      <c r="D383" s="3">
         <v>2018</v>
       </c>
       <c r="E383">
@@ -26661,7 +26669,7 @@
       <c r="B384" t="s">
         <v>30</v>
       </c>
-      <c r="D384" s="4">
+      <c r="D384" s="3">
         <v>2017</v>
       </c>
       <c r="E384">
@@ -26708,7 +26716,7 @@
       <c r="B385" t="s">
         <v>30</v>
       </c>
-      <c r="D385" s="4">
+      <c r="D385" s="3">
         <v>2016</v>
       </c>
       <c r="E385">
@@ -26755,7 +26763,7 @@
       <c r="B386" t="s">
         <v>30</v>
       </c>
-      <c r="D386" s="4">
+      <c r="D386" s="3">
         <v>2015</v>
       </c>
       <c r="E386">
@@ -26802,7 +26810,7 @@
       <c r="B387" t="s">
         <v>30</v>
       </c>
-      <c r="D387" s="4">
+      <c r="D387" s="3">
         <v>2014</v>
       </c>
       <c r="E387">
@@ -26849,7 +26857,7 @@
       <c r="B388" t="s">
         <v>30</v>
       </c>
-      <c r="D388" s="4">
+      <c r="D388" s="3">
         <v>2013</v>
       </c>
       <c r="E388">
@@ -26896,7 +26904,7 @@
       <c r="B389" t="s">
         <v>30</v>
       </c>
-      <c r="D389" s="4">
+      <c r="D389" s="3">
         <v>2012</v>
       </c>
       <c r="E389">
@@ -26943,7 +26951,7 @@
       <c r="B390" t="s">
         <v>30</v>
       </c>
-      <c r="D390" s="4">
+      <c r="D390" s="3">
         <v>2011</v>
       </c>
       <c r="E390">
@@ -26990,7 +26998,7 @@
       <c r="B391" t="s">
         <v>30</v>
       </c>
-      <c r="D391" s="4">
+      <c r="D391" s="3">
         <v>2010</v>
       </c>
       <c r="E391">
@@ -27037,7 +27045,7 @@
       <c r="B392" t="s">
         <v>30</v>
       </c>
-      <c r="D392" s="4">
+      <c r="D392" s="3">
         <v>2009</v>
       </c>
       <c r="E392">
@@ -27084,7 +27092,7 @@
       <c r="B393" t="s">
         <v>30</v>
       </c>
-      <c r="D393" s="4">
+      <c r="D393" s="3">
         <v>2008</v>
       </c>
       <c r="E393">
@@ -27131,7 +27139,7 @@
       <c r="B394" t="s">
         <v>30</v>
       </c>
-      <c r="D394" s="4">
+      <c r="D394" s="3">
         <v>2007</v>
       </c>
       <c r="E394">
@@ -27178,7 +27186,7 @@
       <c r="B395" t="s">
         <v>30</v>
       </c>
-      <c r="D395" s="4">
+      <c r="D395" s="3">
         <v>2006</v>
       </c>
       <c r="E395">
@@ -27225,7 +27233,7 @@
       <c r="B396" t="s">
         <v>30</v>
       </c>
-      <c r="D396" s="4">
+      <c r="D396" s="3">
         <v>2005</v>
       </c>
       <c r="E396">
@@ -27272,7 +27280,7 @@
       <c r="B397" t="s">
         <v>30</v>
       </c>
-      <c r="D397" s="4">
+      <c r="D397" s="3">
         <v>2004</v>
       </c>
       <c r="E397">
@@ -27319,7 +27327,7 @@
       <c r="B398" t="s">
         <v>30</v>
       </c>
-      <c r="D398" s="4">
+      <c r="D398" s="3">
         <v>2003</v>
       </c>
       <c r="E398">
@@ -27366,7 +27374,7 @@
       <c r="B399" t="s">
         <v>30</v>
       </c>
-      <c r="D399" s="4">
+      <c r="D399" s="3">
         <v>2002</v>
       </c>
       <c r="E399">
@@ -27413,7 +27421,7 @@
       <c r="B400" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="4">
+      <c r="D400" s="3">
         <v>2001</v>
       </c>
       <c r="E400">
@@ -27460,7 +27468,7 @@
       <c r="B401" t="s">
         <v>30</v>
       </c>
-      <c r="D401" s="4">
+      <c r="D401" s="3">
         <v>2000</v>
       </c>
       <c r="E401">
@@ -27507,7 +27515,7 @@
       <c r="B402" t="s">
         <v>30</v>
       </c>
-      <c r="D402" s="4">
+      <c r="D402" s="3">
         <v>1999</v>
       </c>
       <c r="E402">
@@ -27554,7 +27562,7 @@
       <c r="B403" t="s">
         <v>30</v>
       </c>
-      <c r="D403" s="4">
+      <c r="D403" s="3">
         <v>1998</v>
       </c>
       <c r="E403">
@@ -27601,7 +27609,7 @@
       <c r="B404" t="s">
         <v>30</v>
       </c>
-      <c r="D404" s="4">
+      <c r="D404" s="3">
         <v>1997</v>
       </c>
       <c r="E404">
@@ -27648,7 +27656,7 @@
       <c r="B405" t="s">
         <v>30</v>
       </c>
-      <c r="D405" s="4">
+      <c r="D405" s="3">
         <v>1996</v>
       </c>
       <c r="E405">
@@ -27695,7 +27703,7 @@
       <c r="B406" t="s">
         <v>30</v>
       </c>
-      <c r="D406" s="4">
+      <c r="D406" s="3">
         <v>1995</v>
       </c>
       <c r="E406">
@@ -27742,7 +27750,7 @@
       <c r="B407" t="s">
         <v>30</v>
       </c>
-      <c r="D407" s="4">
+      <c r="D407" s="3">
         <v>1994</v>
       </c>
       <c r="E407">
@@ -27789,7 +27797,7 @@
       <c r="B408" t="s">
         <v>30</v>
       </c>
-      <c r="D408" s="4">
+      <c r="D408" s="3">
         <v>1993</v>
       </c>
       <c r="E408">
@@ -27836,7 +27844,7 @@
       <c r="B409" t="s">
         <v>30</v>
       </c>
-      <c r="D409" s="4">
+      <c r="D409" s="3">
         <v>1992</v>
       </c>
       <c r="E409">
@@ -27883,7 +27891,7 @@
       <c r="B410" t="s">
         <v>30</v>
       </c>
-      <c r="D410" s="4">
+      <c r="D410" s="3">
         <v>1991</v>
       </c>
       <c r="E410">
@@ -27930,7 +27938,7 @@
       <c r="B411" t="s">
         <v>30</v>
       </c>
-      <c r="D411" s="4">
+      <c r="D411" s="3">
         <v>1990</v>
       </c>
       <c r="E411">
@@ -27977,7 +27985,7 @@
       <c r="B412" t="s">
         <v>30</v>
       </c>
-      <c r="D412" s="4">
+      <c r="D412" s="3">
         <v>1989</v>
       </c>
       <c r="E412">
@@ -28024,7 +28032,7 @@
       <c r="B413" t="s">
         <v>30</v>
       </c>
-      <c r="D413" s="4">
+      <c r="D413" s="3">
         <v>1988</v>
       </c>
       <c r="E413">
@@ -28071,7 +28079,7 @@
       <c r="B414" t="s">
         <v>30</v>
       </c>
-      <c r="D414" s="4">
+      <c r="D414" s="3">
         <v>1987</v>
       </c>
       <c r="E414">
@@ -28118,7 +28126,7 @@
       <c r="B415" t="s">
         <v>30</v>
       </c>
-      <c r="D415" s="4">
+      <c r="D415" s="3">
         <v>1986</v>
       </c>
       <c r="E415">
@@ -28165,7 +28173,7 @@
       <c r="B416" t="s">
         <v>30</v>
       </c>
-      <c r="D416" s="4">
+      <c r="D416" s="3">
         <v>1985</v>
       </c>
       <c r="E416">
@@ -28212,7 +28220,7 @@
       <c r="B417" t="s">
         <v>30</v>
       </c>
-      <c r="D417" s="4">
+      <c r="D417" s="3">
         <v>1984</v>
       </c>
       <c r="E417">
@@ -28259,7 +28267,7 @@
       <c r="B418" t="s">
         <v>30</v>
       </c>
-      <c r="D418" s="4">
+      <c r="D418" s="3">
         <v>1983</v>
       </c>
       <c r="E418">
@@ -28306,7 +28314,7 @@
       <c r="B419" t="s">
         <v>30</v>
       </c>
-      <c r="D419" s="4">
+      <c r="D419" s="3">
         <v>1982</v>
       </c>
       <c r="E419">
@@ -28353,7 +28361,7 @@
       <c r="B420" t="s">
         <v>30</v>
       </c>
-      <c r="D420" s="4">
+      <c r="D420" s="3">
         <v>1981</v>
       </c>
       <c r="E420">
@@ -28400,7 +28408,7 @@
       <c r="B421" t="s">
         <v>30</v>
       </c>
-      <c r="D421" s="4">
+      <c r="D421" s="3">
         <v>1980</v>
       </c>
       <c r="E421">
@@ -28447,7 +28455,7 @@
       <c r="B422" t="s">
         <v>30</v>
       </c>
-      <c r="D422" s="4">
+      <c r="D422" s="3">
         <v>1979</v>
       </c>
       <c r="E422">
@@ -28505,24 +28513,39 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="77.44140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
